--- a/Registration_Summary1.xlsx
+++ b/Registration_Summary1.xlsx
@@ -446,13 +446,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -469,13 +469,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -492,13 +492,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -515,13 +515,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -538,13 +538,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -561,13 +561,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Registration_Summary1.xlsx
+++ b/Registration_Summary1.xlsx
@@ -446,13 +446,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -469,13 +469,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -492,13 +492,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -515,13 +515,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -538,13 +538,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -561,13 +561,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Registration_Summary1.xlsx
+++ b/Registration_Summary1.xlsx
@@ -446,13 +446,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -469,13 +469,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -492,13 +492,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -515,13 +515,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -538,13 +538,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -561,13 +561,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
